--- a/xlsx/WWE_intext.xlsx
+++ b/xlsx/WWE_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1014">
   <si>
     <t>WWE</t>
   </si>
@@ -35,43 +35,43 @@
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E7%A5%A8%E4%BB%A3%E8%99%9F</t>
   </si>
   <si>
-    <t>股票代號</t>
+    <t>股票代号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E8%AD%89%E5%88%B8%E4%BA%A4%E6%98%93%E6%89%80</t>
   </si>
   <si>
-    <t>紐約證券交易所</t>
+    <t>纽约证券交易所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%83%E5%A4%A7%E5%BB%88%E6%91%94%E8%A7%92%E8%82%A1%E4%BB%BD%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>國會大廈摔角股份有限公司</t>
+    <t>国会大厦摔角股份有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E8%BE%A6%E4%BA%BA</t>
   </si>
   <si>
-    <t>創辦人</t>
+    <t>创办人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E6%96%AF%C2%B7%E9%BA%A5%E9%A6%AC%E6%BC%A2</t>
   </si>
   <si>
-    <t>文斯·麥馬漢</t>
+    <t>文斯·麦马汉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%B3%E9%81%94%C2%B7%E9%BA%A5%E9%A6%AC%E6%BC%A2</t>
   </si>
   <si>
-    <t>琳達·麥馬漢</t>
+    <t>琳达·麦马汉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E8%A3%81</t>
   </si>
   <si>
-    <t>總裁</t>
+    <t>总裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CEO</t>
@@ -89,13 +89,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E8%91%A3%E4%BA%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>副董事長</t>
+    <t>副董事长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%84%8F%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>創意總監</t>
+    <t>创意总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CFO</t>
@@ -137,73 +137,73 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>董事長</t>
+    <t>董事长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E8%8A%AC%E5%A6%AE%C2%B7%E9%BA%A5%E9%A6%AC%E6%BC%A2</t>
   </si>
   <si>
-    <t>史蒂芬妮·麥馬漢</t>
+    <t>史蒂芬妮·麦马汉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E7%89%8C%E9%95%B7</t>
   </si>
   <si>
-    <t>品牌長</t>
+    <t>品牌长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E6%81%A9%C2%B7%E9%BA%A5%E9%A6%AC%E6%BC%A2</t>
   </si>
   <si>
-    <t>辛恩·麥馬漢</t>
+    <t>辛恩·麦马汉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>電視</t>
+    <t>电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E7%9B%AE</t>
   </si>
   <si>
-    <t>節目</t>
+    <t>节目</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%BD%E4%BD%9C</t>
   </si>
   <si>
-    <t>製作</t>
+    <t>制作</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>律師</t>
+    <t>律师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8F%B8%E7%A7%98%E6%9B%B8</t>
   </si>
   <si>
-    <t>公司秘書</t>
+    <t>公司秘书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%A7%E5%95%8F</t>
   </si>
   <si>
-    <t>顧問</t>
+    <t>顾问</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>董事會</t>
+    <t>董事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%80%E7%89%8C%E8%99%9F%E7%A2%BC</t>
   </si>
   <si>
-    <t>門牌號碼</t>
+    <t>门牌号码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E6%A5%AD%E6%91%94%E8%A7%92</t>
   </si>
   <si>
-    <t>職業摔角</t>
+    <t>职业摔角</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sports_entertainment</t>
@@ -251,31 +251,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>大眾媒體</t>
+    <t>大众媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>技術</t>
+    <t>技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B2%E6%B5%81%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>串流技術</t>
+    <t>串流技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E6%A5%AD%E9%A1%8D</t>
   </si>
   <si>
-    <t>營業額</t>
+    <t>营业额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%85%E5%89%8D%E6%81%AF%E5%89%8D%E5%88%A9%E6%BD%A4</t>
   </si>
   <si>
-    <t>稅前息前利潤</t>
+    <t>税前息前利润</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B6%A6</t>
@@ -287,19 +287,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E7%94%A2</t>
   </si>
   <si>
-    <t>資產</t>
+    <t>资产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E6%9D%B1%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>股東權益</t>
+    <t>股东权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%91%94%E8%A7%92%E5%A8%9B%E6%A8%82%E7%B6%B2%E8%B7%AF%E6%9C%8D%E5%8B%99</t>
   </si>
   <si>
-    <t>世界摔角娛樂網路服務</t>
+    <t>世界摔角娱乐网路服务</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/WWE_Libraries</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%91%94%E8%A7%92%E5%A8%9B%E6%A8%82%E5%94%B1%E7%89%87%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>世界摔角娛樂唱片公司</t>
+    <t>世界摔角娱乐唱片公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NXT_Wrestling</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%86%A0%E8%BB%8D%E6%91%94%E8%A7%92</t>
   </si>
   <si>
-    <t>世界冠軍摔角</t>
+    <t>世界冠军摔角</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/House_show</t>
@@ -359,37 +359,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E6%94%B6</t>
   </si>
   <si>
-    <t>營收</t>
+    <t>营收</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>電影</t>
+    <t>电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E6%A8%82</t>
   </si>
   <si>
-    <t>音樂</t>
+    <t>音乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%88%E6%AC%8A</t>
   </si>
   <si>
-    <t>版權</t>
+    <t>版权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7</t>
   </si>
   <si>
-    <t>行銷</t>
+    <t>行销</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E5%AD%90%E5%8D%94%E5%AE%9A</t>
   </si>
   <si>
-    <t>君子協定</t>
+    <t>君子协定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E7%A5%A8</t>
@@ -401,49 +401,49 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AD%89%E5%88%B8%E6%8A%95%E8%B3%87%E5%9F%BA%E9%87%91</t>
   </si>
   <si>
-    <t>證券投資基金</t>
+    <t>证券投资基金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%BF%E9%9A%AA%E5%9F%BA%E9%87%91</t>
   </si>
   <si>
-    <t>避險基金</t>
+    <t>避险基金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>集團</t>
+    <t>集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E9%83%A8</t>
   </si>
   <si>
-    <t>總部</t>
+    <t>总部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
   </si>
   <si>
-    <t>紐約</t>
+    <t>纽约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF</t>
   </si>
   <si>
-    <t>洛杉磯</t>
+    <t>洛杉矶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6</t>
   </si>
   <si>
-    <t>倫敦</t>
+    <t>伦敦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%80%AB%E5%A4%9A</t>
   </si>
   <si>
-    <t>多倫多</t>
+    <t>多伦多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC</t>
   </si>
   <si>
-    <t>東京</t>
+    <t>东京</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
@@ -467,19 +467,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E8%B2%B7</t>
   </si>
   <si>
-    <t>孟買</t>
+    <t>孟买</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E6%A5%AD</t>
   </si>
   <si>
-    <t>企業</t>
+    <t>企业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>縮寫</t>
+    <t>缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WWE_Raw</t>
@@ -515,25 +515,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%B6%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>皇家大戰</t>
+    <t>皇家大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%94%E8%A7%92%E7%8B%82%E7%86%B1</t>
   </si>
   <si>
-    <t>摔角狂熱</t>
+    <t>摔角狂热</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E6%97%A5%E8%A1%9D%E6%93%8A</t>
   </si>
   <si>
-    <t>夏日衝擊</t>
+    <t>夏日冲击</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%91%94%E8%A7%92%E5%A8%9B%E6%A8%82%E4%BB%98%E8%B2%BB%E6%94%B6%E7%9C%8B%E7%AF%80%E7%9B%AE</t>
   </si>
   <si>
-    <t>世界摔角娛樂付費收看節目</t>
+    <t>世界摔角娱乐付费收看节目</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/History_of_WWE</t>
@@ -551,19 +551,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E5%A3%AB%C2%B7%E9%BA%A5%E9%A6%AC%E6%BC%A2</t>
   </si>
   <si>
-    <t>傑士·麥馬漢</t>
+    <t>杰士·麦马汉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%B3%E6%93%8A</t>
   </si>
   <si>
-    <t>拳擊</t>
+    <t>拳击</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E9%BA%A5%E8%BF%AA%E9%81%9C%E8%8A%B1%E5%9C%92%E5%BB%A3%E5%A0%B4</t>
   </si>
   <si>
-    <t>en-第三麥迪遜花園廣場</t>
+    <t>en-第三麦迪逊花园广场</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Toots_Mondt</t>
@@ -581,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E7%B4%80%E4%BA%BA</t>
   </si>
   <si>
-    <t>經紀人</t>
+    <t>经纪人</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Billy_Sandow</t>
@@ -611,19 +611,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E6%A3%AE%C2%B7%E8%A9%B9%E5%A7%86%E5%A3%AB%C2%B7%E6%96%87%E6%96%AF%C2%B7%E9%BA%A5%E9%A6%AC%E6%BC%A2</t>
   </si>
   <si>
-    <t>文森·詹姆士·文斯·麥馬漢</t>
+    <t>文森·詹姆士·文斯·麦马汉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9D%B1%E5%8C%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國東北部</t>
+    <t>美国东北部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%BF%AA%C2%B7%E7%BE%85%E6%B8%A3%E5%A3%AB</t>
   </si>
   <si>
-    <t>巴迪·羅渣士</t>
+    <t>巴迪·罗渣士</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/NWA_World_Heavyweight_Championship</t>
@@ -635,19 +635,19 @@
     <t>https://zh.wikipedia.org/wiki/WWWF%E4%B8%96%E7%95%8C%E9%87%8D%E9%87%8F%E7%B4%9A%E5%86%A0%E8%BB%8D</t>
   </si>
   <si>
-    <t>WWWF世界重量級冠軍</t>
+    <t>WWWF世界重量级冠军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E8%87%9F%E7%97%85</t>
   </si>
   <si>
-    <t>心臟病</t>
+    <t>心脏病</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%AD%AF%E8%AB%BE%C2%B7%E5%B1%B1%E7%91%AA%E6%8F%90%E8%AB%BE</t>
   </si>
   <si>
-    <t>布魯諾·山瑪提諾</t>
+    <t>布鲁诺·山玛提诺</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Lou_Albano</t>
@@ -659,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Rocky_III</t>
@@ -683,13 +683,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E8%BF%AA%C2%B7%E6%B4%BE%E7%8F%80</t>
   </si>
   <si>
-    <t>羅迪·派珀</t>
+    <t>罗迪·派珀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E8%A5%BF%C2%B7%E6%BA%AB%E5%9C%96%E6%8B%89</t>
   </si>
   <si>
-    <t>傑西·溫圖拉</t>
+    <t>杰西·温图拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A8%E4%BA%BA%E5%AE%89%E5%BE%B7%E7%83%88</t>
@@ -713,13 +713,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8B%BC%E9%90%B5%E9%85%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>鋼鐵酋長</t>
+    <t>钢铁酋长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8F%A4%E6%8B%89%C2%B7%E6%B2%83%E7%88%BE%E7%A7%91%E5%A4%AB</t>
   </si>
   <si>
-    <t>尼古拉·沃爾科夫</t>
+    <t>尼古拉·沃尔科夫</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Junkyard_Dog</t>
@@ -737,7 +737,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%9B%B7%E6%A0%BC%C2%B7%E7%93%A6%E5%80%AB%E4%B8%81</t>
   </si>
   <si>
-    <t>格雷格·瓦倫丁</t>
+    <t>格雷格·瓦伦丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A5%87%C2%B7%E6%96%AF%E5%BB%B7%E5%8D%9A%E7%89%B9</t>
@@ -749,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%B4%9A%E7%9B%83</t>
   </si>
   <si>
-    <t>超級盃</t>
+    <t>超级杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
@@ -785,13 +785,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E8%92%82%C2%B7%E7%BE%85%E6%B3%A2</t>
   </si>
   <si>
-    <t>辛蒂·羅波</t>
+    <t>辛蒂·罗波</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E6%A8%82%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>音樂電視網</t>
+    <t>音乐电视网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E8%A1%8C%E6%96%87%E5%8C%96</t>
@@ -803,13 +803,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%90%96%E6%BB%BE%E6%A8%82</t>
   </si>
   <si>
-    <t>搖滾樂</t>
+    <t>摇滚乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>國家廣播公司</t>
+    <t>国家广播公司</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Saturday_Night%27s_Main_Event</t>
@@ -821,13 +821,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>網路電視</t>
+    <t>网路电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BE%90%E8%92%82%E4%BA%9E%E5%85%8B%E9%8A%80%E8%9B%8B%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>龐蒂亞克銀蛋球場</t>
+    <t>庞蒂亚克银蛋球场</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/WrestleMania_III</t>
@@ -851,13 +851,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A8%E7%9F%B3%E5%BC%B7%E6%A3%AE</t>
   </si>
   <si>
-    <t>巨石強森</t>
+    <t>巨石强森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E9%A8%B7%E6%93%BE</t>
   </si>
   <si>
-    <t>性騷擾</t>
+    <t>性骚扰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B3</t>
@@ -875,19 +875,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%81%A9%C2%B7%E9%BA%A5%E5%8F%AF</t>
   </si>
   <si>
-    <t>尚恩·麥可</t>
+    <t>尚恩·麦可</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E6%96%87%C2%B7%E5%A5%88%E8%A8%B1</t>
   </si>
   <si>
-    <t>凱文·奈許</t>
+    <t>凯文·奈许</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%80%83%E7%89%B9%C2%B7%E9%9C%8D%E7%88%BE</t>
   </si>
   <si>
-    <t>史考特·霍爾</t>
+    <t>史考特·霍尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%9B%B7%E7%89%B9%C2%B7%E5%93%88%E7%89%B9</t>
@@ -905,10 +905,13 @@
     <t>https://zh.wikipedia.org/wiki/N/A</t>
   </si>
   <si>
+    <t>nan</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E7%B7%9A%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>有線電視</t>
+    <t>有线电视</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/WCW_Monday_Nitro</t>
@@ -920,7 +923,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E7%88%BE%E6%A3%AE%E6%94%B6%E8%A6%96%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>尼爾森收視系統</t>
+    <t>尼尔森收视系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Monday_Night_Wars</t>
@@ -962,7 +965,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E7%9F%B3%C2%B7%E5%8F%B2%E8%92%82%E5%A4%AB%C2%B7%E5%A5%A7%E6%96%AF%E6%B1%80</t>
   </si>
   <si>
-    <t>冷石·史蒂夫·奧斯汀</t>
+    <t>冷石·史蒂夫·奥斯汀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%85%8B%C2%B7%E4%BD%9B%E5%88%A9</t>
@@ -974,7 +977,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E6%98%82%C2%B7%E6%87%B7%E7%89%B9</t>
   </si>
   <si>
-    <t>里昂·懷特</t>
+    <t>里昂·怀特</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/King_of_the_Ring_(1996)</t>
@@ -986,7 +989,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E5%85%8B%C2%B7%E7%BE%85%E5%8B%83%E8%8C%B2</t>
   </si>
   <si>
-    <t>傑克·羅勃茲</t>
+    <t>杰克·罗勃兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E8%8B%B1%E9%9B%84</t>
@@ -1004,7 +1007,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E6%B4%BE%E6%8B%89%E8%92%99%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>聯合派拉蒙電視網</t>
+    <t>联合派拉蒙电视网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WWE_SmackDown</t>
@@ -1016,7 +1019,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%B7%9A%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>無線電視</t>
+    <t>无线电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%B3%E7%90%83</t>
@@ -1034,31 +1037,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E9%99%90%E5%86%A0%E8%BB%8D%E6%91%94%E8%A7%92</t>
   </si>
   <si>
-    <t>極限冠軍摔角</t>
+    <t>极限冠军摔角</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3%E8%8F%AF%E7%B4%8D</t>
   </si>
   <si>
-    <t>時代華納</t>
+    <t>时代华纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B7%9A%E4%B8%8A</t>
   </si>
   <si>
-    <t>美國線上</t>
+    <t>美国线上</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%B5%E8%B3%BC</t>
   </si>
   <si>
-    <t>併購</t>
+    <t>并购</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%BE%B7%C2%B7%E9%80%8F%E7%B4%8D</t>
   </si>
   <si>
-    <t>泰德·透納</t>
+    <t>泰德·透纳</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Eric_Bischoff</t>
@@ -1076,7 +1079,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%87%AA%E7%84%B6%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>世界自然基金會</t>
+    <t>世界自然基金会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/WWE_Brand_Extension</t>
@@ -1088,7 +1091,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%B8%8C%E7%B4%8D</t>
   </si>
   <si>
-    <t>約翰·希納</t>
+    <t>约翰·希纳</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/WWE_Draft</t>
@@ -1106,13 +1109,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>佛羅里達州</t>
+    <t>佛罗里达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%99%E7%B8%A3_(%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E5%B7%9E)</t>
   </si>
   <si>
-    <t>橙縣 (佛羅里達州)</t>
+    <t>橙县 (佛罗里达州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%85%B0%E5%A4%9A_(%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E)</t>
@@ -1136,7 +1139,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%99%82%E5%8D%80</t>
   </si>
   <si>
-    <t>美國時區</t>
+    <t>美国时区</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Florida_Championship_Wrestling</t>
@@ -1148,7 +1151,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E7%B4%84</t>
   </si>
   <si>
-    <t>合約</t>
+    <t>合约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E8%BF%AA%C2%B7%E8%91%9B%E9%9B%B7%E6%B4%9B</t>
@@ -1166,7 +1169,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E5%8C%96%E9%A1%9E%E5%9B%BA%E9%86%87</t>
   </si>
   <si>
-    <t>同化類固醇</t>
+    <t>同化类固醇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%C2%B7%E7%8F%AD%E7%93%A6</t>
@@ -1184,7 +1187,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E7%88%BE%C2%B7%E5%87%A1%E7%89%B9%E7%B6%AD%E6%96%AF%C2%B7%E6%B3%A2%E7%89%B9</t>
   </si>
   <si>
-    <t>蒙特爾·凡特維斯·波特</t>
+    <t>蒙特尔·凡特维斯·波特</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Wolff%E2%80%93Parkinson%E2%80%93White_syndrome</t>
@@ -1196,13 +1199,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%82%8C%E8%82%89%E9%AC%86%E5%BC%9B%E5%8A%91</t>
   </si>
   <si>
-    <t>肌肉鬆弛劑</t>
+    <t>肌肉松弛剂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E4%BF%9D%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>環保組織</t>
+    <t>环保组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A8%E5%86%8C%E5%95%86%E6%A0%87</t>
@@ -1214,7 +1217,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E8%AA%8C</t>
   </si>
   <si>
-    <t>標誌</t>
+    <t>标志</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/WWE_Insurrextion</t>
@@ -1226,25 +1229,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E8%A1%8C%E9%8A%B7</t>
   </si>
   <si>
-    <t>市場行銷</t>
+    <t>市场行销</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E7%B6%B2%E7%AB%99</t>
   </si>
   <si>
-    <t>官方網站</t>
+    <t>官方网站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E%E7%A8%BF</t>
   </si>
   <si>
-    <t>新聞稿</t>
+    <t>新闻稿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%89%B9%E7%A6%8F%E7%B8%A3</t>
   </si>
   <si>
-    <t>哈特福縣</t>
+    <t>哈特福县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%89%B9%E7%A6%8F</t>
@@ -1292,7 +1295,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%B4%9B%E5%85%8B%C2%B7%E9%9B%B7%E6%96%AF%E7%B4%8D</t>
   </si>
   <si>
-    <t>布洛克·雷斯納</t>
+    <t>布洛克·雷斯纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A8%E6%BC%94</t>
@@ -1304,13 +1307,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%9B%E6%A8%82</t>
   </si>
   <si>
-    <t>娛樂</t>
+    <t>娱乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%80%E7%9C%BE</t>
   </si>
   <si>
-    <t>觀眾</t>
+    <t>观众</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%A1%E4%BB%BF</t>
@@ -1322,13 +1325,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%93%E7%B7%B4</t>
   </si>
   <si>
-    <t>訓練</t>
+    <t>训练</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E5%8B%95%E5%93%A1</t>
   </si>
   <si>
-    <t>運動員</t>
+    <t>运动员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8B%E6%95%85</t>
@@ -1352,7 +1355,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%91%8A</t>
   </si>
   <si>
-    <t>廣告</t>
+    <t>广告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AA%A8%E6%8A%98</t>
@@ -1364,7 +1367,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%84%AB%E8%87%BC</t>
   </si>
   <si>
-    <t>脫臼</t>
+    <t>脱臼</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Acclaim_Entertainment</t>
@@ -1382,19 +1385,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B3%B0%E5%85%92</t>
   </si>
   <si>
-    <t>美泰兒</t>
+    <t>美泰儿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E6%9B%B2</t>
   </si>
   <si>
-    <t>單曲</t>
+    <t>单曲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E8%BC%AF</t>
   </si>
   <si>
-    <t>專輯</t>
+    <t>专辑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/VHS</t>
@@ -1412,7 +1415,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E5%85%89%E5%85%89%E7%A2%9F</t>
   </si>
   <si>
-    <t>藍光光碟</t>
+    <t>蓝光光碟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E7%89%88</t>
@@ -1424,7 +1427,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%AB%E7%95%AB</t>
   </si>
   <si>
-    <t>漫畫</t>
+    <t>漫画</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/World_Bodybuilding_Federation</t>
@@ -1442,7 +1445,7 @@
     <t>https://zh.wikipedia.org/wiki/NBC%E7%92%B0%E7%90%83</t>
   </si>
   <si>
-    <t>NBC環球</t>
+    <t>NBC环球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%BC%8F%E8%B6%B3%E7%90%83</t>
@@ -1466,7 +1469,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A4%90%E5%BB%B3</t>
   </si>
   <si>
-    <t>餐廳</t>
+    <t>餐厅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9C%E5%BA%97</t>
@@ -1478,13 +1481,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%80%E5%BF%B5%E5%93%81%E5%95%86%E5%BA%97</t>
   </si>
   <si>
-    <t>紀念品商店</t>
+    <t>纪念品商店</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%AC%E7%9F%B3%E9%A4%90%E5%BB%B3</t>
   </si>
   <si>
-    <t>硬石餐廳</t>
+    <t>硬石餐厅</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/WWE_Niagara_Fall</t>
@@ -1514,13 +1517,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%A6%AC%E8%B9%84%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>金馬蹄地區</t>
+    <t>金马蹄地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>尼加拉地區</t>
+    <t>尼加拉地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%80%91%E5%B8%83%E5%9F%8E_(%E5%AE%89%E5%A4%A7%E7%95%A5)</t>
@@ -1532,7 +1535,7 @@
     <t>https://zh.wikipedia.org/wiki/WWE%E7%92%B0%E7%90%83%E5%86%A0%E8%BB%8D</t>
   </si>
   <si>
-    <t>WWE環球冠軍</t>
+    <t>WWE环球冠军</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Brock_Lesnar</t>
@@ -1694,7 +1697,7 @@
     <t>https://zh.wikipedia.org/wiki/WWE_SmackDown%E9%9B%99%E6%89%93%E5%86%A0%E8%BB%8D</t>
   </si>
   <si>
-    <t>WWE SmackDown雙打冠軍</t>
+    <t>WWE SmackDown双打冠军</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_Usos</t>
@@ -1718,7 +1721,7 @@
     <t>https://zh.wikipedia.org/wiki/WWE_SmackDown%E5%A5%B3%E5%AD%90%E5%86%A0%E8%BB%8D</t>
   </si>
   <si>
-    <t>WWE SmackDown女子冠軍</t>
+    <t>WWE SmackDown女子冠军</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Charlotte_Flair</t>
@@ -1736,7 +1739,7 @@
     <t>https://zh.wikipedia.org/wiki/NXT%E5%86%A0%E8%BB%8D</t>
   </si>
   <si>
-    <t>NXT冠軍</t>
+    <t>NXT冠军</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/La_Sombra_(wrestler)</t>
@@ -1784,7 +1787,7 @@
     <t>https://zh.wikipedia.org/wiki/NXT%E9%9B%99%E6%89%93%E5%86%A0%E8%BB%8D</t>
   </si>
   <si>
-    <t>NXT雙打冠軍</t>
+    <t>NXT双打冠军</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kyle_O%27Reilly</t>
@@ -1808,7 +1811,7 @@
     <t>https://zh.wikipedia.org/wiki/NXT%E5%A5%B3%E5%AD%90%E5%86%A0%E8%BB%8D</t>
   </si>
   <si>
-    <t>NXT女子冠軍</t>
+    <t>NXT女子冠军</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ember_Moon</t>
@@ -1832,7 +1835,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E4%BA%8B%E5%8C%85%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>公事包大戰</t>
+    <t>公事包大战</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Carmella</t>
@@ -1940,7 +1943,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/AB3</t>
@@ -1970,13 +1973,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E5%B0%BC%E4%BA%9E%E8%88%87%E8%B5%AB%E5%A1%9E%E5%93%A5%E7%B6%AD%E7%B4%8D</t>
   </si>
   <si>
-    <t>波士尼亞與赫塞哥維納</t>
+    <t>波士尼亚与赫塞哥维纳</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Televizija_OBN</t>
@@ -2036,13 +2039,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%9D%E8%A5%BF%E9%9B%BB%E8%A6%96%E5%8F%B0</t>
   </si>
   <si>
-    <t>陝西電視台</t>
+    <t>陕西电视台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E6%9D%B1%E9%9B%BB%E8%A6%96%E5%8F%B0</t>
   </si>
   <si>
-    <t>廣東電視台</t>
+    <t>广东电视台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E8%8B%8F%E7%9C%81%E5%B9%BF%E6%92%AD%E7%94%B5%E8%A7%86%E6%80%BB%E5%8F%B0</t>
@@ -2054,7 +2057,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E5%9C%B3%E9%9B%BB%E8%A6%96%E5%8F%B0</t>
   </si>
   <si>
-    <t>深圳電視台</t>
+    <t>深圳电视台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%96%E5%8C%97%E7%94%B5%E8%A7%86%E5%8F%B0</t>
@@ -2066,7 +2069,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E5%8C%97%E9%9B%BB%E8%A6%96%E5%8F%B0</t>
   </si>
   <si>
-    <t>河北電視台</t>
+    <t>河北电视台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%B4%A5%E7%94%B5%E8%A7%86%E5%8F%B0</t>
@@ -2120,7 +2123,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A</t>
   </si>
   <si>
-    <t>薩爾瓦多</t>
+    <t>萨尔瓦多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -2144,7 +2147,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
@@ -2186,7 +2189,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Nova_Sports</t>
@@ -2228,7 +2231,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里蘭卡</t>
+    <t>斯里兰卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E5%B0%94</t>
@@ -2252,13 +2255,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E5%A0%B4%E7%9B%B4%E6%92%AD</t>
   </si>
   <si>
-    <t>現場直播</t>
+    <t>现场直播</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sky_Sport_2</t>
@@ -2300,7 +2303,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/RTL_7_(Netherlands)</t>
@@ -2312,7 +2315,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_Box_(New_Zealand)</t>
@@ -2342,7 +2345,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ATV</t>
@@ -2354,19 +2357,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%96%AF%E4%BA%9E%E6%B4%B2%E5%8F%B0</t>
   </si>
   <si>
-    <t>福斯亞洲台</t>
+    <t>福斯亚洲台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Extreme_Sports_Channel</t>
@@ -2390,7 +2393,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sport.ro</t>
@@ -2402,7 +2405,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2%C3%972_(%E7%94%B5%E8%A7%86%E9%A2%91%E9%81%93)</t>
@@ -2414,7 +2417,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>塞爾維亞</t>
+    <t>塞尔维亚</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Prva_Srpska_Televizija</t>
@@ -2462,19 +2465,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AF%E4%BE%86%E8%82%B2%E6%A8%82%E5%8F%B0</t>
   </si>
   <si>
-    <t>緯來育樂台</t>
+    <t>纬来育乐台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/TrueVisions</t>
@@ -2486,13 +2489,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/USA%E9%9B%BB%E8%A6%96%E5%8F%B0</t>
   </si>
   <si>
-    <t>USA電視台</t>
+    <t>USA电视台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
@@ -2504,19 +2507,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>愛爾蘭共和國</t>
+    <t>爱尔兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%A9%BA%E9%AB%94%E8%82%B2%E5%8F%B0</t>
   </si>
   <si>
-    <t>天空體育台</t>
+    <t>天空体育台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%91%94%E8%A7%92%E5%A8%9B%E6%A8%82%E9%81%B8%E6%89%8B%E5%8F%8A%E5%B7%A5%E4%BD%9C%E4%BA%BA%E5%93%A1%E4%B8%80%E8%A6%BD</t>
   </si>
   <si>
-    <t>世界摔角娛樂選手及工作人員一覽</t>
+    <t>世界摔角娱乐选手及工作人员一览</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -2534,7 +2537,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%AD%89%E5%88%B8%E4%BA%A4%E6%98%93%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>美國證券交易委員會</t>
+    <t>美国证券交易委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/New_York_Stock_Exchange</t>
@@ -2624,13 +2627,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%91%94%E8%A7%92%E5%A8%9B%E6%A8%82%E5%90%8D%E4%BA%BA%E5%A0%82</t>
   </si>
   <si>
-    <t>世界摔角娛樂名人堂</t>
+    <t>世界摔角娱乐名人堂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9D%E6%93%8A%E5%A4%A7%E8%B3%9E</t>
   </si>
   <si>
-    <t>衝擊大賞</t>
+    <t>冲击大赏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WWE_Countdown</t>
@@ -2654,7 +2657,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9C%9F%E4%BA%BA%E5%AF%A6%E5%A2%83%E7%A7%80</t>
   </si>
   <si>
-    <t>真人實境秀</t>
+    <t>真人实境秀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WWE_Legends%27_House</t>
@@ -2684,7 +2687,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E9%99%90%E8%A6%8F%E5%89%87</t>
   </si>
   <si>
-    <t>極限規則</t>
+    <t>极限规则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WWE_Payback</t>
@@ -2696,19 +2699,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%A0%E8%BB%8D%E4%B9%8B%E5%A4%9C</t>
   </si>
   <si>
-    <t>冠軍之夜</t>
+    <t>冠军之夜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WWE%E6%AE%BA%E6%88%AE%E6%88%B0%E5%A0%B4</t>
   </si>
   <si>
-    <t>WWE殺戮戰場</t>
+    <t>WWE杀戮战场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B7%E8%80%85%E7%94%9F%E5%AD%98</t>
   </si>
   <si>
-    <t>強者生存</t>
+    <t>强者生存</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A1%8C%E5%AD%90%E3%80%81%E6%A2%AF%E5%AD%90%E3%80%81%E6%A4%85%E5%AD%90</t>
@@ -2744,7 +2747,7 @@
     <t>https://zh.wikipedia.org/wiki/WWF%E6%9B%BC%E5%9F%8E%E5%A4%A7%E4%BA%82%E9%AC%A5</t>
   </si>
   <si>
-    <t>WWF曼城大亂鬥</t>
+    <t>WWF曼城大乱斗</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/In_Your_House</t>
@@ -2798,7 +2801,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E8%B7%AF%E5%8F%AF%E9%80%83</t>
   </si>
   <si>
-    <t>無路可逃</t>
+    <t>无路可逃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%86%E8%A3%82%E9%9C%87%E6%92%BC</t>
@@ -2810,31 +2813,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AB%E6%97%A5%E5%AF%A9%E5%88%A4_(%E6%91%94%E8%A7%92)</t>
   </si>
   <si>
-    <t>末日審判 (摔角)</t>
+    <t>末日审判 (摔角)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%8E%E9%A0%AD%E7%97%9B%E6%93%8A</t>
   </si>
   <si>
-    <t>迎頭痛擊</t>
+    <t>迎头痛击</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%BA%E7%84%A1%E8%B5%A6_(%E6%91%94%E8%A7%92)</t>
   </si>
   <si>
-    <t>殺無赦 (摔角)</t>
+    <t>杀无赦 (摔角)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8C%E5%85%A8%E7%B5%82%E7%B5%90</t>
   </si>
   <si>
-    <t>完全終結</t>
+    <t>完全终结</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E6%88%B0%E6%98%9F%E6%9C%9F%E6%97%A5</t>
   </si>
   <si>
-    <t>決戰星期日</t>
+    <t>决战星期日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%9C%AB%E6%97%A5_(%E6%91%94%E8%A7%92)</t>
@@ -2852,43 +2855,43 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E8%B6%8A%E6%A5%B5%E9%99%90</t>
   </si>
   <si>
-    <t>超越極限</t>
+    <t>超越极限</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%88%91%E5%AE%A4%E9%90%B5%E7%B1%A0%E6%88%B0</t>
   </si>
   <si>
-    <t>行刑室鐵籠戰</t>
+    <t>行刑室铁笼战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WWE%E7%BE%8E%E5%9C%8B%E5%86%A0%E8%BB%8D</t>
   </si>
   <si>
-    <t>WWE美國冠軍</t>
+    <t>WWE美国冠军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WWE%E9%9B%99%E6%89%93%E5%86%A0%E8%BB%8D</t>
   </si>
   <si>
-    <t>WWE雙打冠軍</t>
+    <t>WWE双打冠军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WWE%E5%A5%B3%E5%AD%90%E5%86%A0%E8%BB%8D</t>
   </si>
   <si>
-    <t>WWE女子冠軍</t>
+    <t>WWE女子冠军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WWE%E5%86%A0%E8%BB%8D</t>
   </si>
   <si>
-    <t>WWE冠軍</t>
+    <t>WWE冠军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WWE%E6%B4%B2%E9%9A%9B%E5%86%A0%E8%BB%8D</t>
   </si>
   <si>
-    <t>WWE洲際冠軍</t>
+    <t>WWE洲际冠军</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_former_championships_in_WWE</t>
@@ -2900,151 +2903,151 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%87%8D%E9%87%8F%E7%B4%9A%E5%86%A0%E8%BB%8D_(WWE)</t>
   </si>
   <si>
-    <t>世界重量級冠軍 (WWE)</t>
+    <t>世界重量级冠军 (WWE)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WWF%E4%B8%96%E7%95%8C%E6%AD%A6%E8%A1%93%E9%87%8D%E9%87%8F%E7%B4%9A%E5%86%A0%E8%BB%8D</t>
   </si>
   <si>
-    <t>WWF世界武術重量級冠軍</t>
+    <t>WWF世界武术重量级冠军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WCW%E4%B8%96%E7%95%8C%E9%87%8D%E9%87%8F%E7%B4%9A%E5%86%A0%E8%BB%8D</t>
   </si>
   <si>
-    <t>WCW世界重量級冠軍</t>
+    <t>WCW世界重量级冠军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ECW%E4%B8%96%E7%95%8C%E9%87%8D%E9%87%8F%E7%B4%9A%E5%86%A0%E8%BB%8D</t>
   </si>
   <si>
-    <t>ECW世界重量級冠軍</t>
+    <t>ECW世界重量级冠军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ECW%E4%B8%96%E7%95%8C%E9%9B%99%E6%89%93%E5%86%A0%E8%BB%8D</t>
   </si>
   <si>
-    <t>ECW世界雙打冠軍</t>
+    <t>ECW世界双打冠军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ECW%E4%B8%96%E7%95%8C%E9%9B%BB%E8%A6%96%E5%86%A0%E8%BB%8D</t>
   </si>
   <si>
-    <t>ECW世界電視冠軍</t>
+    <t>ECW世界电视冠军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WWE%E6%AD%90%E6%B4%B2%E5%86%A0%E8%BB%8D</t>
   </si>
   <si>
-    <t>WWE歐洲冠軍</t>
+    <t>WWE欧洲冠军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WWF%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%86%A0%E8%BB%8D</t>
   </si>
   <si>
-    <t>WWF加拿大冠軍</t>
+    <t>WWF加拿大冠军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WWWF%E7%BE%8E%E5%9C%8B%E5%86%A0%E8%BB%8D</t>
   </si>
   <si>
-    <t>WWWF美國冠軍</t>
+    <t>WWWF美国冠军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WWF%E5%9C%8B%E9%9A%9B%E9%87%8D%E9%87%8F%E7%B4%9A%E5%86%A0%E8%BB%8D</t>
   </si>
   <si>
-    <t>WWF國際重量級冠軍</t>
+    <t>WWF国际重量级冠军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WWF%E5%8C%97%E7%BE%8E%E9%87%8D%E9%87%8F%E7%B4%9A%E5%86%A0%E8%BB%8D</t>
   </si>
   <si>
-    <t>WWF北美重量級冠軍</t>
+    <t>WWF北美重量级冠军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WWE%E4%B8%AD%E9%87%8D%E9%87%8F%E7%B4%9A%E5%86%A0%E8%BB%8D</t>
   </si>
   <si>
-    <t>WWE中重量級冠軍</t>
+    <t>WWE中重量级冠军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WWF%E8%BC%95%E9%87%8D%E9%87%8F%E7%B4%9A%E5%86%A0%E8%BB%8D</t>
   </si>
   <si>
-    <t>WWF輕重量級冠軍</t>
+    <t>WWF轻重量级冠军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WWF%E6%AC%A1%E9%87%8D%E9%87%8F%E7%B4%9A%E5%86%A0%E8%BB%8D</t>
   </si>
   <si>
-    <t>WWF次重量級冠軍</t>
+    <t>WWF次重量级冠军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%9B%99%E6%89%93%E5%86%A0%E8%BB%8D_(WWE)</t>
   </si>
   <si>
-    <t>世界雙打冠軍 (WWE)</t>
+    <t>世界双打冠军 (WWE)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WWF%E5%9C%8B%E9%9A%9B%E9%9B%99%E6%89%93%E5%86%A0%E8%BB%8D</t>
   </si>
   <si>
-    <t>WWF國際雙打冠軍</t>
+    <t>WWF国际双打冠军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WWF%E6%B4%B2%E9%9A%9B%E9%9B%99%E6%89%93%E5%86%A0%E8%BB%8D</t>
   </si>
   <si>
-    <t>WWF洲際雙打冠軍</t>
+    <t>WWF洲际双打冠军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WWWF%E7%BE%8E%E5%9C%8B%E9%9B%99%E6%89%93%E5%86%A0%E8%BB%8D</t>
   </si>
   <si>
-    <t>WWWF美國雙打冠軍</t>
+    <t>WWWF美国双打冠军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WCW%E4%B8%96%E7%95%8C%E9%9B%99%E6%89%93%E5%86%A0%E8%BB%8D</t>
   </si>
   <si>
-    <t>WCW世界雙打冠軍</t>
+    <t>WCW世界双打冠军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WWF%E5%A5%B3%E5%AD%90%E9%9B%99%E6%89%93%E5%86%A0%E8%BB%8D</t>
   </si>
   <si>
-    <t>WWF女子雙打冠軍</t>
+    <t>WWF女子双打冠军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WWE%E7%A1%AC%E8%95%8A%E5%86%A0%E8%BB%8D</t>
   </si>
   <si>
-    <t>WWE硬蕊冠軍</t>
+    <t>WWE硬蕊冠军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WWE%E7%99%BE%E8%90%AC%E5%86%A0%E8%BB%8D</t>
   </si>
   <si>
-    <t>WWE百萬冠軍</t>
+    <t>WWE百万冠军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WWE%E9%BA%97%E4%BA%BA%E5%86%A0%E8%BB%8D</t>
   </si>
   <si>
-    <t>WWE麗人冠軍</t>
+    <t>WWE丽人冠军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%91%94%E8%A7%92%E5%A8%9B%E6%A8%82%E5%86%A0%E8%BB%8D%E5%A4%A7%E6%BB%BF%E8%B2%AB</t>
   </si>
   <si>
-    <t>世界摔角娛樂冠軍大滿貫</t>
+    <t>世界摔角娱乐冠军大满贯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%91%94%E8%A7%92%E5%A8%9B%E6%A8%82%E4%B8%89%E5%86%A0%E7%8E%8B</t>
   </si>
   <si>
-    <t>世界摔角娛樂三冠王</t>
+    <t>世界摔角娱乐三冠王</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%91%94%E8%A7%92%E5%A8%9B%E6%A8%82</t>
@@ -7831,7 +7834,9 @@
       <c r="E153" t="s">
         <v>295</v>
       </c>
-      <c r="F153" t="s"/>
+      <c r="F153" t="s">
+        <v>296</v>
+      </c>
       <c r="G153" t="n">
         <v>21</v>
       </c>
@@ -7856,10 +7861,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F154" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7914,10 +7919,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F156" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G156" t="n">
         <v>3</v>
@@ -7943,10 +7948,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F157" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G157" t="n">
         <v>3</v>
@@ -7972,10 +7977,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F158" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -8001,10 +8006,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F159" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -8030,10 +8035,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F160" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -8059,10 +8064,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F161" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -8088,10 +8093,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F162" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -8117,10 +8122,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F163" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -8146,10 +8151,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F164" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G164" t="n">
         <v>4</v>
@@ -8175,10 +8180,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F165" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8204,10 +8209,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F166" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -8233,10 +8238,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F167" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8262,10 +8267,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F168" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -8291,10 +8296,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F169" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8320,10 +8325,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F170" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8349,10 +8354,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F171" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G171" t="n">
         <v>3</v>
@@ -8378,10 +8383,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F172" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G172" t="n">
         <v>6</v>
@@ -8407,10 +8412,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F173" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8436,10 +8441,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F174" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G174" t="n">
         <v>9</v>
@@ -8465,10 +8470,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F175" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G175" t="n">
         <v>5</v>
@@ -8494,10 +8499,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F176" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G176" t="n">
         <v>9</v>
@@ -8523,10 +8528,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F177" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G177" t="n">
         <v>3</v>
@@ -8552,10 +8557,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F178" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -8581,10 +8586,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F179" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8610,10 +8615,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F180" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8639,10 +8644,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F181" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8668,10 +8673,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F182" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8726,10 +8731,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F184" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G184" t="n">
         <v>5</v>
@@ -8755,10 +8760,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F185" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -8784,10 +8789,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F186" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8813,10 +8818,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F187" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8842,10 +8847,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F188" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -8871,10 +8876,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F189" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G189" t="n">
         <v>3</v>
@@ -8900,10 +8905,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F190" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -8929,10 +8934,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F191" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -8958,10 +8963,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F192" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8987,10 +8992,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F193" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -9045,10 +9050,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F195" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -9074,10 +9079,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F196" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -9103,10 +9108,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F197" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -9132,10 +9137,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F198" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G198" t="n">
         <v>5</v>
@@ -9219,10 +9224,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F201" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G201" t="n">
         <v>2</v>
@@ -9248,10 +9253,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F202" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9277,10 +9282,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F203" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -9306,10 +9311,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F204" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -9335,10 +9340,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F205" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9364,10 +9369,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F206" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9393,10 +9398,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F207" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -9422,10 +9427,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F208" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9451,10 +9456,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F209" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9480,10 +9485,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F210" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9509,10 +9514,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F211" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G211" t="n">
         <v>12</v>
@@ -9538,10 +9543,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F212" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -9567,10 +9572,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F213" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9596,10 +9601,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F214" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G214" t="n">
         <v>3</v>
@@ -9625,10 +9630,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F215" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9654,10 +9659,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F216" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9683,10 +9688,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F217" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G217" t="n">
         <v>2</v>
@@ -9712,10 +9717,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F218" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9741,10 +9746,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F219" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G219" t="n">
         <v>3</v>
@@ -9770,10 +9775,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F220" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -9799,10 +9804,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F221" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9828,10 +9833,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F222" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9857,10 +9862,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F223" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G223" t="n">
         <v>2</v>
@@ -9886,10 +9891,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F224" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9915,10 +9920,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F225" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G225" t="n">
         <v>3</v>
@@ -9944,10 +9949,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F226" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G226" t="n">
         <v>129</v>
@@ -9973,10 +9978,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F227" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G227" t="n">
         <v>3</v>
@@ -10002,10 +10007,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F228" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -10031,10 +10036,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F229" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -10060,10 +10065,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F230" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G230" t="n">
         <v>2</v>
@@ -10089,10 +10094,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F231" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -10118,10 +10123,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F232" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -10147,10 +10152,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F233" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -10176,10 +10181,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F234" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G234" t="n">
         <v>3</v>
@@ -10205,10 +10210,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F235" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10234,10 +10239,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F236" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10263,10 +10268,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F237" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10292,10 +10297,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F238" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10321,10 +10326,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F239" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10408,10 +10413,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F242" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10437,10 +10442,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F243" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10466,10 +10471,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F244" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10495,10 +10500,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F245" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G245" t="n">
         <v>3</v>
@@ -10524,10 +10529,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F246" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10553,10 +10558,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F247" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G247" t="n">
         <v>4</v>
@@ -10582,10 +10587,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F248" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10611,10 +10616,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F249" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10640,10 +10645,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F250" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G250" t="n">
         <v>2</v>
@@ -10669,10 +10674,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F251" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10698,10 +10703,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F252" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G252" t="n">
         <v>4</v>
@@ -10727,10 +10732,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F253" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10756,10 +10761,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F254" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10785,10 +10790,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F255" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G255" t="n">
         <v>5</v>
@@ -10814,10 +10819,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F256" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10843,10 +10848,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F257" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10872,10 +10877,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F258" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10901,10 +10906,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F259" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10930,10 +10935,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F260" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G260" t="n">
         <v>3</v>
@@ -10959,10 +10964,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F261" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10988,10 +10993,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F262" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -11017,10 +11022,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F263" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -11046,10 +11051,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F264" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -11075,10 +11080,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F265" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
@@ -11133,10 +11138,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F267" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G267" t="n">
         <v>4</v>
@@ -11162,10 +11167,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F268" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11191,10 +11196,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F269" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11220,10 +11225,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F270" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11249,10 +11254,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F271" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -11278,10 +11283,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F272" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11307,10 +11312,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F273" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11336,10 +11341,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F274" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11365,10 +11370,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F275" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11394,10 +11399,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F276" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11423,10 +11428,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F277" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11452,10 +11457,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F278" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11481,10 +11486,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F279" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11510,10 +11515,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F280" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11539,10 +11544,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F281" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11568,10 +11573,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F282" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11597,10 +11602,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F283" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G283" t="n">
         <v>2</v>
@@ -11626,10 +11631,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F284" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11655,10 +11660,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F285" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11684,10 +11689,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F286" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11713,10 +11718,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F287" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11742,10 +11747,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F288" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G288" t="n">
         <v>3</v>
@@ -11771,10 +11776,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F289" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11800,10 +11805,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F290" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G290" t="n">
         <v>2</v>
@@ -11829,10 +11834,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F291" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11858,10 +11863,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F292" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11887,10 +11892,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F293" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11916,10 +11921,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F294" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11945,10 +11950,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F295" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G295" t="n">
         <v>3</v>
@@ -11974,10 +11979,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F296" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -12003,10 +12008,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F297" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -12032,10 +12037,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F298" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G298" t="n">
         <v>2</v>
@@ -12061,10 +12066,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F299" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12090,10 +12095,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F300" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12119,10 +12124,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F301" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12148,10 +12153,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F302" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12177,10 +12182,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F303" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12206,10 +12211,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F304" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12235,10 +12240,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F305" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G305" t="n">
         <v>2</v>
@@ -12264,10 +12269,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F306" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12293,10 +12298,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F307" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G307" t="n">
         <v>2</v>
@@ -12322,10 +12327,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F308" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12351,10 +12356,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F309" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12380,10 +12385,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F310" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12409,10 +12414,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F311" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12438,10 +12443,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F312" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12467,10 +12472,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F313" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12496,10 +12501,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F314" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12525,10 +12530,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F315" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12554,10 +12559,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F316" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12583,10 +12588,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F317" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12641,10 +12646,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F319" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12670,10 +12675,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F320" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G320" t="n">
         <v>4</v>
@@ -12699,10 +12704,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F321" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="G321" t="n">
         <v>2</v>
@@ -12728,10 +12733,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F322" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G322" t="n">
         <v>2</v>
@@ -12757,10 +12762,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F323" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G323" t="n">
         <v>3</v>
@@ -12786,10 +12791,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F324" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12815,10 +12820,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F325" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G325" t="n">
         <v>2</v>
@@ -12844,10 +12849,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F326" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12873,10 +12878,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F327" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G327" t="n">
         <v>2</v>
@@ -12902,10 +12907,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F328" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G328" t="n">
         <v>4</v>
@@ -12931,10 +12936,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F329" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12960,10 +12965,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F330" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G330" t="n">
         <v>3</v>
@@ -12989,10 +12994,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F331" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G331" t="n">
         <v>2</v>
@@ -13018,10 +13023,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F332" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -13047,10 +13052,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F333" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G333" t="n">
         <v>2</v>
@@ -13076,10 +13081,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F334" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13105,10 +13110,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F335" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G335" t="n">
         <v>7</v>
@@ -13134,10 +13139,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F336" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13163,10 +13168,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F337" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G337" t="n">
         <v>8</v>
@@ -13192,10 +13197,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F338" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13221,10 +13226,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F339" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G339" t="n">
         <v>5</v>
@@ -13250,10 +13255,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F340" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13279,10 +13284,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F341" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G341" t="n">
         <v>4</v>
@@ -13308,10 +13313,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F342" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G342" t="n">
         <v>3</v>
@@ -13337,10 +13342,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F343" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13366,10 +13371,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F344" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13395,10 +13400,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F345" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="G345" t="n">
         <v>2</v>
@@ -13424,10 +13429,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F346" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13453,10 +13458,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F347" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13482,10 +13487,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F348" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13511,10 +13516,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F349" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="G349" t="n">
         <v>2</v>
@@ -13540,10 +13545,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F350" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13569,10 +13574,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F351" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G351" t="n">
         <v>2</v>
@@ -13598,10 +13603,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F352" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13627,10 +13632,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F353" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13656,10 +13661,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F354" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13685,10 +13690,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F355" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13714,10 +13719,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F356" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13743,10 +13748,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F357" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13772,10 +13777,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F358" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13801,10 +13806,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F359" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13830,10 +13835,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F360" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13859,10 +13864,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F361" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13888,10 +13893,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F362" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13917,10 +13922,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F363" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="G363" t="n">
         <v>2</v>
@@ -13946,10 +13951,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F364" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13975,10 +13980,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F365" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -14004,10 +14009,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F366" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14033,10 +14038,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F367" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G367" t="n">
         <v>2</v>
@@ -14062,10 +14067,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F368" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -14091,10 +14096,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F369" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14120,10 +14125,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F370" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G370" t="n">
         <v>2</v>
@@ -14149,10 +14154,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F371" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="G371" t="n">
         <v>2</v>
@@ -14178,10 +14183,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F372" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14207,10 +14212,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F373" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14236,10 +14241,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F374" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14265,10 +14270,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F375" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14294,10 +14299,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="F376" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14323,10 +14328,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F377" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G377" t="n">
         <v>2</v>
@@ -14352,10 +14357,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F378" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14381,10 +14386,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="F379" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14410,10 +14415,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="F380" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14439,10 +14444,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F381" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14468,10 +14473,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="F382" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G382" t="n">
         <v>3</v>
@@ -14497,10 +14502,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="F383" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14526,10 +14531,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F384" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14555,10 +14560,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="F385" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14584,10 +14589,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="F386" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14613,10 +14618,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F387" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14642,10 +14647,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F388" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14671,10 +14676,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="F389" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14700,10 +14705,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F390" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G390" t="n">
         <v>2</v>
@@ -14729,10 +14734,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="F391" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G391" t="n">
         <v>4</v>
@@ -14758,10 +14763,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="F392" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G392" t="n">
         <v>2</v>
@@ -14787,10 +14792,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F393" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14816,10 +14821,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="F394" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14845,10 +14850,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F395" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14874,10 +14879,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="F396" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14903,10 +14908,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F397" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G397" t="n">
         <v>2</v>
@@ -14932,10 +14937,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="F398" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14961,10 +14966,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F399" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14990,10 +14995,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F400" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -15019,10 +15024,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="F401" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G401" t="n">
         <v>2</v>
@@ -15048,10 +15053,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F402" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -15077,10 +15082,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F403" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G403" t="n">
         <v>4</v>
@@ -15106,10 +15111,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F404" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15135,10 +15140,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F405" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15164,10 +15169,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F406" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="G406" t="n">
         <v>3</v>
@@ -15193,10 +15198,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F407" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15222,10 +15227,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="F408" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15251,10 +15256,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="F409" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15280,10 +15285,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F410" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="G410" t="n">
         <v>4</v>
@@ -15309,10 +15314,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F411" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="G411" t="n">
         <v>4</v>
@@ -15338,10 +15343,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F412" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="G412" t="n">
         <v>5</v>
@@ -15367,10 +15372,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F413" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15396,10 +15401,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F414" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="G414" t="n">
         <v>2</v>
@@ -15425,10 +15430,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F415" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15454,10 +15459,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F416" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15483,10 +15488,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="F417" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15512,10 +15517,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="F418" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15541,10 +15546,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F419" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15570,10 +15575,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="F420" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="G420" t="n">
         <v>4</v>
@@ -15599,10 +15604,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F421" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G421" t="n">
         <v>4</v>
@@ -15628,10 +15633,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="F422" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15657,10 +15662,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F423" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15686,10 +15691,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F424" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15715,10 +15720,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="F425" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15744,10 +15749,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F426" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15773,10 +15778,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="F427" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15802,10 +15807,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="F428" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="G428" t="n">
         <v>3</v>
@@ -15831,10 +15836,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="F429" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15860,10 +15865,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="F430" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15889,10 +15894,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="F431" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="G431" t="n">
         <v>5</v>
@@ -15918,10 +15923,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F432" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15947,10 +15952,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F433" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="G433" t="n">
         <v>2</v>
@@ -15976,10 +15981,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F434" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16005,10 +16010,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="F435" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16034,10 +16039,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="F436" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="G436" t="n">
         <v>4</v>
@@ -16063,10 +16068,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="F437" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16092,10 +16097,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="F438" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="G438" t="n">
         <v>4</v>
@@ -16121,10 +16126,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="F439" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16150,10 +16155,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F440" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="G440" t="n">
         <v>2</v>
@@ -16179,10 +16184,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="F441" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="G441" t="n">
         <v>2</v>
@@ -16208,10 +16213,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="F442" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16237,10 +16242,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="F443" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="G443" t="n">
         <v>4</v>
@@ -16266,10 +16271,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F444" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16295,10 +16300,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="F445" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16324,10 +16329,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="F446" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16353,10 +16358,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="F447" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="G447" t="n">
         <v>9</v>
@@ -16382,10 +16387,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="F448" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16440,10 +16445,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F450" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="G450" t="n">
         <v>2</v>
@@ -16469,10 +16474,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="F451" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="G451" t="n">
         <v>2</v>
@@ -16498,10 +16503,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="F452" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G452" t="n">
         <v>2</v>
@@ -16527,10 +16532,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="F453" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16556,10 +16561,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="F454" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16585,10 +16590,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F455" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16701,10 +16706,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="F459" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16730,10 +16735,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="F460" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16759,10 +16764,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="F461" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16788,10 +16793,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F462" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16817,10 +16822,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="F463" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16846,10 +16851,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="F464" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -16875,10 +16880,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="F465" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16904,10 +16909,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="F466" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -16933,10 +16938,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F467" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="G467" t="n">
         <v>2</v>
@@ -16962,10 +16967,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="F468" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -16991,10 +16996,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="F469" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17020,10 +17025,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="F470" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17078,10 +17083,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="F472" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17107,10 +17112,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="F473" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17136,10 +17141,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="F474" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="G474" t="n">
         <v>2</v>
@@ -17165,10 +17170,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="F475" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17194,10 +17199,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="F476" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17223,10 +17228,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="F477" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17252,10 +17257,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="F478" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17281,10 +17286,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="F479" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17310,10 +17315,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="F480" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17339,10 +17344,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="F481" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17368,10 +17373,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="F482" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17397,10 +17402,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="F483" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17426,10 +17431,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="F484" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17455,10 +17460,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="F485" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17484,10 +17489,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="F486" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17513,10 +17518,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="F487" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17542,10 +17547,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="F488" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17571,10 +17576,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="F489" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17600,10 +17605,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="F490" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17629,10 +17634,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="F491" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17658,10 +17663,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="F492" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -17687,10 +17692,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="F493" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17716,10 +17721,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="F494" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -17745,10 +17750,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="F495" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -17774,10 +17779,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="F496" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -17803,10 +17808,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="F497" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -17832,10 +17837,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="F498" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -17861,10 +17866,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="F499" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="G499" t="n">
         <v>2</v>
@@ -17890,10 +17895,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F500" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -17919,10 +17924,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="F501" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -17948,10 +17953,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="F502" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -17977,10 +17982,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="F503" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18006,10 +18011,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="F504" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18035,10 +18040,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="F505" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18064,10 +18069,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F506" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18093,10 +18098,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F507" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18122,10 +18127,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F508" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18151,10 +18156,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F509" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18180,10 +18185,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F510" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18209,10 +18214,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F511" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18238,10 +18243,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F512" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="G512" t="n">
         <v>6</v>
@@ -18267,10 +18272,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="F513" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18296,10 +18301,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="F514" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18325,10 +18330,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F515" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G515" t="n">
         <v>11</v>
@@ -18354,10 +18359,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="F516" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18383,10 +18388,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="F517" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18412,10 +18417,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="F518" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -18441,10 +18446,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="F519" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -18470,10 +18475,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="F520" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -18499,10 +18504,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="F521" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -18528,10 +18533,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="F522" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -18557,10 +18562,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="F523" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -18586,10 +18591,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="F524" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="G524" t="n">
         <v>2</v>
@@ -18615,10 +18620,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="F525" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -18644,10 +18649,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="F526" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -18673,10 +18678,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="F527" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="G527" t="n">
         <v>3</v>
@@ -18702,10 +18707,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="F528" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -18731,10 +18736,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="F529" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -18760,10 +18765,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="F530" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -18789,10 +18794,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="F531" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -18818,10 +18823,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F532" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -18847,10 +18852,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="F533" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -18876,10 +18881,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="F534" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -18905,10 +18910,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="F535" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -18934,10 +18939,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F536" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -18963,10 +18968,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="F537" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -18992,10 +18997,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="F538" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="G538" t="n">
         <v>5</v>
@@ -19021,10 +19026,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="F539" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
